--- a/data/schema.xlsx
+++ b/data/schema.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.2.11\ortak\650.PLANLAMA\651.HUSNU\00.PLANLAMA\2024.11.06 - Yeni Uzun Kod Sistemi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.2.11\ortak\650.PLANLAMA\651.HUSNU\00.PLANLAMA\2024.11.06 - Yeni Uzun Kod Sistemi\ChatGPT\v4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{503FA152-D305-406C-9F5A-668EFC788106}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1756E588-4A5D-4EA7-8BCC-D86FB9F4D421}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38510" yWindow="-7430" windowWidth="38620" windowHeight="21100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38510" yWindow="-7430" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="products" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="119">
   <si>
     <t>Kategori1</t>
   </si>
@@ -390,6 +390,9 @@
   </si>
   <si>
     <t>Hat Hızı</t>
+  </si>
+  <si>
+    <t>UrunKodu</t>
   </si>
 </sst>
 </file>
@@ -752,10 +755,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -767,7 +770,7 @@
     <col min="5" max="5" width="8.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -778,10 +781,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -794,8 +800,11 @@
       <c r="D2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -808,8 +817,11 @@
       <c r="D3" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -822,8 +834,11 @@
       <c r="D4" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -836,8 +851,11 @@
       <c r="D5" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -850,8 +868,11 @@
       <c r="D6" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -864,8 +885,11 @@
       <c r="D7" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -878,8 +902,11 @@
       <c r="D8" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -892,8 +919,11 @@
       <c r="D9" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>39</v>
       </c>
@@ -906,8 +936,11 @@
       <c r="D10" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>39</v>
       </c>
@@ -920,8 +953,11 @@
       <c r="D11" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>39</v>
       </c>
@@ -934,8 +970,11 @@
       <c r="D12" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>39</v>
       </c>
@@ -948,8 +987,11 @@
       <c r="D13" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>39</v>
       </c>
@@ -962,8 +1004,11 @@
       <c r="D14" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E14" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>39</v>
       </c>
@@ -976,8 +1021,11 @@
       <c r="D15" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E15" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>39</v>
       </c>
@@ -990,8 +1038,11 @@
       <c r="D16" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>39</v>
       </c>
@@ -1004,8 +1055,11 @@
       <c r="D17" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E17" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>39</v>
       </c>
@@ -1018,8 +1072,11 @@
       <c r="D18" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E18" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>39</v>
       </c>
@@ -1032,8 +1089,11 @@
       <c r="D19" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E19" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>39</v>
       </c>
@@ -1046,8 +1106,11 @@
       <c r="D20" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E20" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>39</v>
       </c>
@@ -1060,8 +1123,11 @@
       <c r="D21" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E21" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>39</v>
       </c>
@@ -1074,8 +1140,11 @@
       <c r="D22" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E22" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>65</v>
       </c>
@@ -1088,8 +1157,11 @@
       <c r="D23" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E23" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>65</v>
       </c>
@@ -1102,8 +1174,11 @@
       <c r="D24" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E24" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>65</v>
       </c>
@@ -1116,8 +1191,11 @@
       <c r="D25" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E25" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>65</v>
       </c>
@@ -1130,8 +1208,11 @@
       <c r="D26" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E26" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>65</v>
       </c>
@@ -1143,6 +1224,9 @@
       </c>
       <c r="D27" t="s">
         <v>78</v>
+      </c>
+      <c r="E27" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1155,7 +1239,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>

--- a/data/schema.xlsx
+++ b/data/schema.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.2.11\ortak\650.PLANLAMA\651.HUSNU\00.PLANLAMA\2024.11.06 - Yeni Uzun Kod Sistemi\ChatGPT\v4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1756E588-4A5D-4EA7-8BCC-D86FB9F4D421}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AB7619D-FC05-4132-9C76-831729A1EC48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38510" yWindow="-7430" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38510" yWindow="-7430" windowWidth="38620" windowHeight="21100" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="products" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="133">
   <si>
     <t>Kategori1</t>
   </si>
@@ -393,6 +393,48 @@
   </si>
   <si>
     <t>UrunKodu</t>
+  </si>
+  <si>
+    <t>Elk_altyapi</t>
+  </si>
+  <si>
+    <t>Elektrik Altyapısı</t>
+  </si>
+  <si>
+    <t>select</t>
+  </si>
+  <si>
+    <t>Elk_altyapi_opts</t>
+  </si>
+  <si>
+    <t>SIE</t>
+  </si>
+  <si>
+    <t>Siemens</t>
+  </si>
+  <si>
+    <t>SCH</t>
+  </si>
+  <si>
+    <t>Schneider</t>
+  </si>
+  <si>
+    <t>ALB</t>
+  </si>
+  <si>
+    <t>Allen-Bradley</t>
+  </si>
+  <si>
+    <t>___</t>
+  </si>
+  <si>
+    <t>Yok</t>
+  </si>
+  <si>
+    <t>XXX</t>
+  </si>
+  <si>
+    <t>UYFde Belirtilen</t>
   </si>
 </sst>
 </file>
@@ -757,8 +799,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2134,11 +2176,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:L1"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="13" width="13.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -2176,6 +2223,26 @@
       </c>
       <c r="L1" s="1" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -2185,11 +2252,19 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -2205,6 +2280,76 @@
         <v>6</v>
       </c>
     </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C3" t="s">
+        <v>126</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C4" t="s">
+        <v>128</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>122</v>
+      </c>
+      <c r="B6" t="s">
+        <v>131</v>
+      </c>
+      <c r="C6" t="s">
+        <v>132</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/schema.xlsx
+++ b/data/schema.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.2.11\ortak\650.PLANLAMA\651.HUSNU\00.PLANLAMA\2024.11.06 - Yeni Uzun Kod Sistemi\ChatGPT\v4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AB7619D-FC05-4132-9C76-831729A1EC48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D890BB42-1CB8-43B1-B31C-DBBF6C723888}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38510" yWindow="-7430" windowWidth="38620" windowHeight="21100" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -434,7 +434,7 @@
     <t>XXX</t>
   </si>
   <si>
-    <t>UYFde Belirtilen</t>
+    <t>UYFdeBelirtilen</t>
   </si>
 </sst>
 </file>
@@ -2255,7 +2255,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2330,7 +2330,7 @@
         <v>129</v>
       </c>
       <c r="C5" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D5">
         <v>4</v>
@@ -2344,7 +2344,7 @@
         <v>131</v>
       </c>
       <c r="C6" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D6">
         <v>5</v>
